--- a/untranslated/downloads/data-excel/2.2.1.xlsx
+++ b/untranslated/downloads/data-excel/2.2.1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="128">
   <si>
     <t>Кыргызская Республика</t>
   </si>
@@ -148,24 +148,6 @@
     <t>2.2.1 Prevalence of stunting (height for age &lt;-2 standard deviation from the median of the World Health Organization (WHO) Child Growth Standards) among children under 5 years of age</t>
   </si>
   <si>
-    <t xml:space="preserve"> Көп көрсөткүчтүү кластердик изилдөөнүн маалыматтары боюнча, 2018-ж.</t>
-  </si>
-  <si>
-    <t>По данным кластерного обследования по многим показателям, 2018г.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Көп индикаторлуу кластердик изилдөөнүн маалыматтары боюнча, 2014-ж.</t>
-  </si>
-  <si>
-    <t>По данным много индикаторного кластерного обследования, 2014гг.</t>
-  </si>
-  <si>
-    <t>According to Multiple Indicator Cluster Survey,2014</t>
-  </si>
-  <si>
-    <t>According to Multiple Indicator Cluster Survey, 2018.</t>
-  </si>
-  <si>
     <t>городская</t>
   </si>
   <si>
@@ -407,6 +389,15 @@
   </si>
   <si>
     <t>Wealth quintile</t>
+  </si>
+  <si>
+    <t>По данным много индикаторного кластерного обследования, 2014г., 2018г., 2023г.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Көп индикаторлуу кластердик изилдөөнүн маалыматтары боюнча, 2014-ж., 2018-ж., 2023-ж.</t>
+  </si>
+  <si>
+    <t>According to Multiple Indicator Cluster Survey, 2014, 2018, 2023</t>
   </si>
 </sst>
 </file>
@@ -614,7 +605,7 @@
     <xf numFmtId="166" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -688,9 +679,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1044,11 +1032,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E128"/>
+  <dimension ref="A1:F127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16:C41"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1057,9 +1043,9 @@
     <col min="3" max="3" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="89.25">
+    <row r="1" spans="1:6" ht="89.25">
       <c r="A1" s="14" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>42</v>
@@ -1070,7 +1056,7 @@
       <c r="D1" s="10"/>
       <c r="E1" s="11"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" s="16" t="s">
         <v>35</v>
       </c>
@@ -1082,13 +1068,13 @@
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:5" ht="15.75" thickBot="1">
+    <row r="3" spans="1:6" ht="15.75" thickBot="1">
       <c r="A3" s="16"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:5" ht="15.75" thickBot="1">
+    <row r="4" spans="1:6" ht="15.75" thickBot="1">
       <c r="A4" s="2" t="s">
         <v>32</v>
       </c>
@@ -1104,8 +1090,11 @@
       <c r="E4" s="17">
         <v>2018</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" s="17">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="19" t="s">
         <v>40</v>
       </c>
@@ -1117,8 +1106,9 @@
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="25"/>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" s="25"/>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
@@ -1134,8 +1124,11 @@
       <c r="E6" s="12">
         <v>11.8</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" s="12">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
         <v>21</v>
       </c>
@@ -1151,8 +1144,11 @@
       <c r="E7" s="25">
         <v>11.9</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" s="25">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
         <v>22</v>
       </c>
@@ -1168,8 +1164,11 @@
       <c r="E8" s="25">
         <v>15.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8" s="25">
+        <v>17.399999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
         <v>23</v>
       </c>
@@ -1185,8 +1184,11 @@
       <c r="E9" s="25">
         <v>14.2</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9" s="25">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
         <v>24</v>
       </c>
@@ -1202,8 +1204,11 @@
       <c r="E10" s="25">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10" s="25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
         <v>25</v>
       </c>
@@ -1219,8 +1224,11 @@
       <c r="E11" s="25">
         <v>13.7</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11" s="25">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="5" t="s">
         <v>26</v>
       </c>
@@ -1236,8 +1244,11 @@
       <c r="E12" s="26">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12" s="26">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="5" t="s">
         <v>27</v>
       </c>
@@ -1253,8 +1264,11 @@
       <c r="E13" s="25">
         <v>10.1</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13" s="25">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="6" t="s">
         <v>28</v>
       </c>
@@ -1270,8 +1284,11 @@
       <c r="E14" s="25">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F14" s="25">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="6" t="s">
         <v>29</v>
       </c>
@@ -1284,481 +1301,543 @@
       <c r="D15" s="9">
         <v>12.1</v>
       </c>
-      <c r="E15" s="28">
+      <c r="E15" s="27">
         <v>10.9</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="36" t="s">
-        <v>119</v>
-      </c>
-      <c r="B16" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="C16" s="36" t="s">
-        <v>126</v>
+      <c r="F15" s="27">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="B16" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>120</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="32" t="s">
-        <v>120</v>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="31" t="s">
+        <v>114</v>
       </c>
       <c r="B17" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="28">
+        <v>13.8</v>
+      </c>
+      <c r="E17" s="32">
+        <v>12.5</v>
+      </c>
+      <c r="F17" s="32">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="28">
+        <v>12</v>
+      </c>
+      <c r="E18" s="32">
+        <v>10.9</v>
+      </c>
+      <c r="F18" s="32">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="B19" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="35" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="28">
+        <v>11.8</v>
+      </c>
+      <c r="E20" s="32">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="F20" s="32">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="28">
+        <v>13.4</v>
+      </c>
+      <c r="E21" s="32">
+        <v>13.1</v>
+      </c>
+      <c r="F21" s="32">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="B22" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" s="35" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="28">
+        <v>5.3</v>
+      </c>
+      <c r="E23" s="32">
+        <v>5.4</v>
+      </c>
+      <c r="F23" s="32">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" s="28">
+        <v>7.2</v>
+      </c>
+      <c r="E24" s="32">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="F24" s="32">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="28">
+        <v>11.2</v>
+      </c>
+      <c r="E25" s="32">
+        <v>12.1</v>
+      </c>
+      <c r="F25" s="32">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" s="28">
+        <v>18.2</v>
+      </c>
+      <c r="E26" s="32">
+        <v>17.2</v>
+      </c>
+      <c r="F26" s="32">
+        <v>20.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" s="29">
+      <c r="C27" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="28">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="E27" s="32">
+        <v>13.2</v>
+      </c>
+      <c r="F27" s="32">
+        <v>19.100000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" s="28">
+        <v>14.6</v>
+      </c>
+      <c r="E28" s="32">
+        <v>11.2</v>
+      </c>
+      <c r="F28" s="32">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="28">
+        <v>10.5</v>
+      </c>
+      <c r="E29" s="32">
+        <v>12.7</v>
+      </c>
+      <c r="F29" s="32">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="B30" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="C30" s="35" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D31" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="E31" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="F31" s="29" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D32" s="28">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="E32" s="32">
+        <v>14.8</v>
+      </c>
+      <c r="F32" s="32">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D33" s="28">
+        <v>13.5</v>
+      </c>
+      <c r="E33" s="33">
+        <v>12</v>
+      </c>
+      <c r="F33" s="33">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D34" s="28">
+        <v>11.8</v>
+      </c>
+      <c r="E34" s="32">
+        <v>12.2</v>
+      </c>
+      <c r="F34" s="32">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D35" s="28">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="E35" s="33">
+        <v>10</v>
+      </c>
+      <c r="F35" s="33">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="B36" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="C36" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D37" s="28">
+        <v>17.7</v>
+      </c>
+      <c r="E37" s="33">
+        <v>14</v>
+      </c>
+      <c r="F37" s="33">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D38" s="28">
+        <v>14.2</v>
+      </c>
+      <c r="E38" s="32">
         <v>13.8</v>
       </c>
-      <c r="E17" s="33">
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" s="29">
+      <c r="F38" s="32">
+        <v>15.6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D39" s="28">
+        <v>10.1</v>
+      </c>
+      <c r="E39" s="33">
         <v>12</v>
       </c>
-      <c r="E18" s="33">
-        <v>10.9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="B19" s="36" t="s">
-        <v>105</v>
-      </c>
-      <c r="C19" s="36" t="s">
+      <c r="F39" s="33">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D40" s="28">
+        <v>10.7</v>
+      </c>
+      <c r="E40" s="32">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F40" s="32">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A41" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="B41" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D41" s="30">
+        <v>10.7</v>
+      </c>
+      <c r="E41" s="34">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="F41" s="34">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="27" customHeight="1">
+      <c r="A42" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="B42" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="C42" s="21" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" s="29">
-        <v>11.8</v>
-      </c>
-      <c r="E20" s="33">
-        <v>8.8000000000000007</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="29">
-        <v>13.4</v>
-      </c>
-      <c r="E21" s="33">
-        <v>13.1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="36" t="s">
-        <v>122</v>
-      </c>
-      <c r="B22" s="36" t="s">
-        <v>106</v>
-      </c>
-      <c r="C22" s="36" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D23" s="29">
-        <v>5.3</v>
-      </c>
-      <c r="E23" s="33">
-        <v>5.4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D24" s="29">
-        <v>7.2</v>
-      </c>
-      <c r="E24" s="33">
-        <v>9.3000000000000007</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D25" s="29">
-        <v>11.2</v>
-      </c>
-      <c r="E25" s="33">
-        <v>12.1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D26" s="29">
-        <v>18.2</v>
-      </c>
-      <c r="E26" s="33">
-        <v>17.2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D27" s="29">
-        <v>18.600000000000001</v>
-      </c>
-      <c r="E27" s="33">
-        <v>13.2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D28" s="29">
-        <v>14.6</v>
-      </c>
-      <c r="E28" s="33">
-        <v>11.2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D29" s="29">
-        <v>10.5</v>
-      </c>
-      <c r="E29" s="33">
-        <v>12.7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="36" t="s">
-        <v>123</v>
-      </c>
-      <c r="B30" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="C30" s="36" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="37" t="s">
-        <v>109</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="D31" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="E31" s="30" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="37" t="s">
-        <v>110</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D32" s="29">
-        <v>17.100000000000001</v>
-      </c>
-      <c r="E32" s="33">
-        <v>14.8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="37" t="s">
-        <v>124</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="D33" s="29">
-        <v>13.5</v>
-      </c>
-      <c r="E33" s="34">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="37" t="s">
-        <v>111</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="D34" s="29">
-        <v>11.8</v>
-      </c>
-      <c r="E34" s="33">
-        <v>12.2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="37" t="s">
-        <v>112</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="D35" s="29">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="E35" s="34">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="38" t="s">
-        <v>125</v>
-      </c>
-      <c r="B36" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="C36" s="36" t="s">
-        <v>130</v>
-      </c>
-      <c r="D36" s="8"/>
-      <c r="E36" s="33"/>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="D37" s="29">
-        <v>17.7</v>
-      </c>
-      <c r="E37" s="34">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="D38" s="29">
-        <v>14.2</v>
-      </c>
-      <c r="E38" s="33">
-        <v>13.8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="39" t="s">
-        <v>115</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="D39" s="29">
-        <v>10.1</v>
-      </c>
-      <c r="E39" s="34">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="D40" s="29">
-        <v>10.7</v>
-      </c>
-      <c r="E40" s="33">
-        <v>8.1999999999999993</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A41" s="40" t="s">
-        <v>117</v>
-      </c>
-      <c r="B41" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="C41" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="D41" s="31">
-        <v>10.7</v>
-      </c>
-      <c r="E41" s="35">
-        <v>9.1999999999999993</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="24">
-      <c r="A42" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="B42" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C42" s="27" t="s">
-        <v>48</v>
-      </c>
       <c r="D42" s="8"/>
     </row>
-    <row r="43" spans="1:5" ht="24">
+    <row r="43" spans="1:6">
       <c r="A43" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="B43" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C43" s="27" t="s">
-        <v>49</v>
+        <v>38</v>
+      </c>
+      <c r="B43" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C43" s="21" t="s">
+        <v>36</v>
       </c>
       <c r="D43" s="8"/>
     </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="B44" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="C44" s="21" t="s">
-        <v>36</v>
-      </c>
+    <row r="44" spans="1:6">
+      <c r="A44" s="8"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
       <c r="D44" s="8"/>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:6">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:6">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:6">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:6">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -2238,12 +2317,6 @@
       <c r="C127" s="8"/>
       <c r="D127" s="8"/>
     </row>
-    <row r="128" spans="1:4">
-      <c r="A128" s="8"/>
-      <c r="B128" s="8"/>
-      <c r="C128" s="8"/>
-      <c r="D128" s="8"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
